--- a/uploads/NVIDIA_PROJECT_-_DATA_DISPLAY.xlsx
+++ b/uploads/NVIDIA_PROJECT_-_DATA_DISPLAY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIRENDER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F5D7E7E-4E81-49B1-9DB3-D6892B31919E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB6BA37-2112-4DC5-B463-DC742D70D2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{91B2235F-C5EA-4B44-B657-CC520AC3E657}"/>
   </bookViews>
@@ -702,7 +702,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q31"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,7 +987,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>2002764148</v>
+        <v>2002764147</v>
       </c>
       <c r="C6" s="2">
         <v>45567</v>
